--- a/template/SPA/country_data.xlsx
+++ b/template/SPA/country_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paho-my.sharepoint.com/personal/caine_paho_org/Documents/WDC/Polio/2023/AR municipal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivermazariegos/Sites/polio-risk-assessment/template/SPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{689AE1EB-FEA6-49E5-9577-E48F78BB7934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E65D68E9-2FE5-4F6D-80A5-874ACCC38B68}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED16B22-7A80-4343-BA43-63BFC975C1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="1" activeTab="6" xr2:uid="{7CFA64C4-648F-B840-901A-EC2D94882293}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22780" windowHeight="14660" xr2:uid="{7CFA64C4-648F-B840-901A-EC2D94882293}"/>
   </bookViews>
   <sheets>
     <sheet name="1-General" sheetId="1" r:id="rId1"/>
@@ -1425,16 +1425,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18904028-F9F6-3046-9356-B730934F1CDF}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1442,19 +1442,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1462,13 +1462,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -1481,18 +1481,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4BC92D02-843F-244F-9460-E090EF2C7C0A}">
-          <x14:formula1>
-            <xm:f>_ListValues!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1502,7 +1490,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
@@ -1514,7 +1502,7 @@
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
@@ -1540,7 +1528,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="5"/>
@@ -1550,7 +1538,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="5"/>
@@ -1560,7 +1548,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="5"/>
@@ -1570,7 +1558,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="5"/>
@@ -1580,7 +1568,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="45"/>
       <c r="C6" s="5"/>
@@ -1590,7 +1578,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="45"/>
       <c r="C7" s="5"/>
@@ -1613,7 +1601,7 @@
       <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
@@ -1624,7 +1612,7 @@
     <col min="9" max="13" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>7</v>
       </c>
@@ -1663,7 +1651,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56"/>
       <c r="B2" s="56"/>
       <c r="C2" s="57"/>
@@ -1690,7 +1678,7 @@
       <c r="N2" s="51"/>
       <c r="O2" s="51"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="2"/>
@@ -1707,7 +1695,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="2"/>
@@ -1724,7 +1712,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="2"/>
@@ -1741,7 +1729,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="45"/>
       <c r="C6" s="2"/>
@@ -1758,7 +1746,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="45"/>
       <c r="C7" s="2"/>
@@ -1775,7 +1763,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="45"/>
       <c r="C8" s="2"/>
@@ -1826,7 +1814,7 @@
       <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
@@ -1837,7 +1825,7 @@
     <col min="15" max="15" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>7</v>
       </c>
@@ -1876,7 +1864,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="91" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56"/>
       <c r="B2" s="56"/>
       <c r="C2" s="57"/>
@@ -1907,7 +1895,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="2"/>
@@ -1924,7 +1912,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="2"/>
@@ -1941,7 +1929,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="2"/>
@@ -1958,7 +1946,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="45"/>
       <c r="C6" s="2"/>
@@ -1975,7 +1963,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="45"/>
       <c r="C7" s="2"/>
@@ -1992,7 +1980,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="45"/>
       <c r="C8" s="2"/>
@@ -2041,14 +2029,14 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="10" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>7</v>
       </c>
@@ -2080,7 +2068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="56"/>
       <c r="B2" s="56"/>
       <c r="C2" s="57"/>
@@ -2096,7 +2084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="2"/>
@@ -2108,7 +2096,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="2"/>
@@ -2120,7 +2108,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="2"/>
@@ -2132,7 +2120,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="45"/>
       <c r="C6" s="2"/>
@@ -2144,7 +2132,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="45"/>
       <c r="C7" s="2"/>
@@ -2156,7 +2144,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="45"/>
       <c r="C8" s="2"/>
@@ -2199,7 +2187,7 @@
       <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="7" width="13.83203125" customWidth="1"/>
@@ -2207,7 +2195,7 @@
     <col min="9" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>7</v>
       </c>
@@ -2241,7 +2229,7 @@
       <c r="M1" s="61"/>
       <c r="N1" s="61"/>
     </row>
-    <row r="2" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56"/>
       <c r="B2" s="56"/>
       <c r="C2" s="57"/>
@@ -2269,7 +2257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="2"/>
@@ -2285,7 +2273,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="2"/>
@@ -2301,7 +2289,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="2"/>
@@ -2317,7 +2305,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="45"/>
       <c r="C6" s="2"/>
@@ -2333,7 +2321,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="45"/>
       <c r="C7" s="2"/>
@@ -2349,7 +2337,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="45"/>
       <c r="C8" s="2"/>
@@ -2402,11 +2390,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24261340-693F-D844-8FDC-79D93DCEE3FF}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="42" customWidth="1"/>
@@ -2415,7 +2403,7 @@
     <col min="5" max="5" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
@@ -2432,7 +2420,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="70" t="s">
         <v>66</v>
       </c>
@@ -2443,7 +2431,7 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="71"/>
       <c r="B3" s="39" t="s">
         <v>8</v>
@@ -2452,7 +2440,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="71"/>
       <c r="B4" s="32" t="s">
         <v>9</v>
@@ -2465,7 +2453,7 @@
       </c>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="71"/>
       <c r="B5" s="39" t="s">
         <v>10</v>
@@ -2478,7 +2466,7 @@
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="40" t="s">
         <v>76</v>
@@ -2491,7 +2479,7 @@
       </c>
       <c r="E6" s="49"/>
     </row>
-    <row r="7" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
       <c r="B7" s="40" t="s">
         <v>75</v>
@@ -2504,7 +2492,7 @@
       </c>
       <c r="E7" s="49"/>
     </row>
-    <row r="8" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="73"/>
       <c r="B8" s="40" t="s">
         <v>11</v>
@@ -2517,7 +2505,7 @@
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="74" t="s">
         <v>67</v>
       </c>
@@ -2534,7 +2522,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="75"/>
       <c r="B10" s="17" t="s">
         <v>89</v>
@@ -2547,7 +2535,7 @@
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="75"/>
       <c r="B11" s="17" t="s">
         <v>90</v>
@@ -2562,7 +2550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76"/>
       <c r="B12" s="20" t="s">
         <v>85</v>
@@ -2577,7 +2565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="62" t="s">
         <v>44</v>
       </c>
@@ -2594,7 +2582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="63"/>
       <c r="B14" s="17" t="s">
         <v>47</v>
@@ -2609,7 +2597,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="63"/>
       <c r="B15" s="17" t="s">
         <v>15</v>
@@ -2624,7 +2612,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A16" s="63"/>
       <c r="B16" s="17" t="s">
         <v>16</v>
@@ -2639,7 +2627,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="63"/>
       <c r="B17" s="17" t="s">
         <v>50</v>
@@ -2654,7 +2642,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="63"/>
       <c r="B18" s="17" t="s">
         <v>18</v>
@@ -2669,7 +2657,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64"/>
       <c r="B19" s="33" t="s">
         <v>19</v>
@@ -2684,7 +2672,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A20" s="65" t="s">
         <v>54</v>
       </c>
@@ -2701,7 +2689,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="66"/>
       <c r="B21" s="30" t="s">
         <v>23</v>
@@ -2716,7 +2704,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="67" t="s">
         <v>68</v>
       </c>
@@ -2731,7 +2719,7 @@
       </c>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="68"/>
       <c r="B23" s="36" t="s">
         <v>59</v>
@@ -2744,7 +2732,7 @@
       </c>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="68"/>
       <c r="B24" s="36" t="s">
         <v>26</v>
@@ -2757,7 +2745,7 @@
       </c>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="68"/>
       <c r="B25" s="36" t="s">
         <v>27</v>
@@ -2770,7 +2758,7 @@
       </c>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="69"/>
       <c r="B26" s="30" t="s">
         <v>63</v>
@@ -2783,7 +2771,7 @@
       </c>
       <c r="E26" s="21"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>65</v>
       </c>
@@ -2812,9 +2800,9 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -2825,7 +2813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -2836,7 +2824,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -2847,22 +2835,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>63</v>
       </c>

--- a/template/SPA/country_data.xlsx
+++ b/template/SPA/country_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivermazariegos/Sites/polio-risk-assessment/template/SPA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paho-my.sharepoint.com/personal/caine_paho_org/Documents/WDC/Polio/2024/AR municipal/polio-risk-assessment-main/template/SPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED16B22-7A80-4343-BA43-63BFC975C1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{7ED16B22-7A80-4343-BA43-63BFC975C1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{782F7CCB-5660-4C4D-BB9F-21C0A0A59AEE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22780" windowHeight="14660" xr2:uid="{7CFA64C4-648F-B840-901A-EC2D94882293}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{7CFA64C4-648F-B840-901A-EC2D94882293}"/>
   </bookViews>
   <sheets>
     <sheet name="1-General" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
   <si>
     <t>Datos generales</t>
   </si>
@@ -294,60 +294,43 @@
     <t>Población total</t>
   </si>
   <si>
-    <t>¿Si la población &lt;15 años de edad es &lt;100000, se presentaron casos de PFA en el 2023?</t>
-  </si>
-  <si>
-    <t>Porcentaje de cobertura con IPV2 2023</t>
-  </si>
-  <si>
-    <t>¿Si el país llevó a cabo una campaña de vacunación contra la polio en 2019-2023, se alcanzó una cobertura &gt;95% en el municipio?</t>
-  </si>
-  <si>
-    <t>% de unidades notificadoras que enviaron información en todas las semanas durante el periodo evaluado (2023)</t>
-  </si>
-  <si>
-    <t>Vigilancia de las PFA 
-(para municipios con &gt;100000 menores de 15 años O municipios con &lt;100000 menores de 15 años que tuvieron casos de PFA en el 2023)</t>
-  </si>
-  <si>
-    <t>Búsqueda activa institucional
-(para municipios con &lt;100000 menores de 15 años SIN casos de PFA en el 2023)</t>
-  </si>
-  <si>
-    <t>Cob. Adm. Polio3 2019, 2020, 2021, 2022 y 2023</t>
-  </si>
-  <si>
-    <t>Cobertura IPV2 2023</t>
-  </si>
-  <si>
-    <t>Para los municipios con menos de 100000 menores de 15 años, determine si se presentaron casos de PFA en el 2023.</t>
-  </si>
-  <si>
-    <t>Cobertura administrativa para IPV2 en el 2023</t>
-  </si>
-  <si>
-    <t>Para los países en los que se llevó a cabo una campaña de vacunación contra la polio entre 2019 y 2023, defina si la cobertura alcanzada en el municipio fue &gt;95%</t>
-  </si>
-  <si>
-    <t>Tasa de PFA para el municipio en 2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">Esta celda solo debe completarse para los municipios con &gt;100000 menores de 15 años o municipios con &lt;100000 pero que hayan tenido casos de PFA en el 2023. Para los municipios con &lt;100000 menores de 15 años y que no tuvieron casos de PFA en 2023, la celda cambiará a gris y no es necesario completar ninguna información. </t>
   </si>
   <si>
     <t>Esta celda solo debe completarse para los municipios con &lt;100000 menores de 15 años y que no hayan tenido casos de PFA en el 2023</t>
   </si>
   <si>
-    <t>Si el país llevó a cabo una campaña de vacunación contra la polio en 2019-2023, ¿se alcanzó una cobertura &gt;95% en el municipio?</t>
-  </si>
-  <si>
     <t>En los municipios con &lt;100000 menores de 15 años y que no presentaron casos de PFA, ¿se llevaron a cabo búsquedas activas institucionales en al menos un establecimiento de salud del municipio?</t>
   </si>
   <si>
-    <t>Si la población &lt;15 años de edad es &lt;100000, ¿se presentaron casos de PFA en el 2023?</t>
-  </si>
-  <si>
     <t xml:space="preserve">% de unidades notificadoras que enviaron información en todas las semanas durante el periodo evaluado </t>
+  </si>
+  <si>
+    <t>¿Si la población &lt;15 años de edad es &lt;100000, se presentaron casos de PFA en el año de evaluación?</t>
+  </si>
+  <si>
+    <t>Cob. Adm. Polio3 en los últimos 5 años</t>
+  </si>
+  <si>
+    <t>Cobertura IPV2 en el año de evaluación</t>
+  </si>
+  <si>
+    <t>¿Si el país llevó a cabo una campaña de vacunación contra la polio en los últimos 5 años, se alcanzó una cobertura &gt;95% en el municipio?</t>
+  </si>
+  <si>
+    <t>Para los municipios con menos de 100000 menores de 15 años, determine si se presentaron casos de PFA en el año de evaluación.</t>
+  </si>
+  <si>
+    <t>Cobertura administrativa para IPV2 en el año de evaluación</t>
+  </si>
+  <si>
+    <t>Para los países en los que se llevó a cabo una campaña de vacunación contra la polio en los últimos 5 años, defina si la cobertura alcanzada en el municipio fue &gt;95%</t>
+  </si>
+  <si>
+    <t>Tasa de PFA para el municipio en el año de evaluación</t>
+  </si>
+  <si>
+    <t>El municipio tuvo eventos o brotes de polio en los últimos 5 años.</t>
   </si>
 </sst>
 </file>
@@ -357,7 +340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -366,16 +349,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,24 +380,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -436,6 +403,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -514,7 +489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -880,15 +855,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,122 +902,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1038,10 +1027,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1050,61 +1039,64 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1126,10 +1118,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1167,7 +1163,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1273,7 +1269,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1415,7 +1411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1426,15 +1422,15 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1442,19 +1438,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1462,13 +1458,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -1490,7 +1486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
@@ -1502,11 +1498,11 @@
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -1528,9 +1524,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1538,9 +1534,9 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1548,9 +1544,9 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1558,9 +1554,9 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1568,9 +1564,9 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1578,9 +1574,9 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1598,10 +1594,10 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
@@ -1609,78 +1605,88 @@
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.9140625" customWidth="1"/>
     <col min="9" max="13" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:15" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="50" t="s">
+      <c r="H1" s="55" t="str">
+        <f>"Si la población &lt;15 años de edad es &lt;100000, ¿se presentaron casos de PFA en el " &amp;'1-General'!B3 &amp;"?"</f>
+        <v>Si la población &lt;15 años de edad es &lt;100000, ¿se presentaron casos de PFA en el ?</v>
+      </c>
+      <c r="I1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" s="50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="43">
-        <v>2019</v>
-      </c>
-      <c r="J2" s="43">
-        <v>2020</v>
-      </c>
-      <c r="K2" s="43">
-        <v>2021</v>
-      </c>
-      <c r="L2" s="43">
-        <v>2022</v>
-      </c>
-      <c r="M2" s="43">
-        <v>2023</v>
-      </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51" t="str">
+        <f>"Porcentaje de cobertura con IPV2 " &amp;M2</f>
+        <v>Porcentaje de cobertura con IPV2 0</v>
+      </c>
+      <c r="O1" s="51" t="str">
+        <f>"Si el país llevó a cabo una campaña de vacunación contra la polio en " &amp;I2 &amp;"-" &amp;M2 &amp;", ¿se alcanzó una cobertura &gt;95% en el municipio?"</f>
+        <v>Si el país llevó a cabo una campaña de vacunación contra la polio en -4-0, ¿se alcanzó una cobertura &gt;95% en el municipio?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="27">
+        <f>'1-General'!B3-4</f>
+        <v>-4</v>
+      </c>
+      <c r="J2" s="27">
+        <f>'1-General'!B3-3</f>
+        <v>-3</v>
+      </c>
+      <c r="K2" s="27">
+        <f>'1-General'!B3-2</f>
+        <v>-2</v>
+      </c>
+      <c r="L2" s="27">
+        <f>'1-General'!B3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M2" s="27">
+        <f>'1-General'!B3</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="6"/>
@@ -1695,9 +1701,9 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
@@ -1712,9 +1718,9 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="6"/>
@@ -1729,9 +1735,9 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="6"/>
@@ -1746,9 +1752,9 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="6"/>
@@ -1763,9 +1769,9 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="8"/>
@@ -1810,11 +1816,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24FC60A-8114-B04C-B5D4-941061AFF1F9}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+    <sheetView topLeftCell="J1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
@@ -1825,79 +1831,87 @@
     <col min="15" max="15" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:15" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="46" t="s">
+      <c r="H1" s="55" t="str">
+        <f>"Si la población &lt;15 años de edad es &lt;100000, ¿se presentaron casos de PFA en el " &amp;'1-General'!B3 &amp;"?"</f>
+        <v>Si la población &lt;15 años de edad es &lt;100000, ¿se presentaron casos de PFA en el ?</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="46" t="s">
+      <c r="J1" s="59" t="str">
+        <f>"Vigilancia de las PFA 
+(para municipios con &gt;100 000 menores de 15 años O municipios con &lt;100000 menores de 15 años que tuvieron casos de PFA en el " &amp;'1-General'!B3 &amp; ")"</f>
+        <v>Vigilancia de las PFA 
+(para municipios con &gt;100 000 menores de 15 años O municipios con &lt;100000 menores de 15 años que tuvieron casos de PFA en el )</v>
+      </c>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="30" t="str">
+        <f>"Búsqueda activa institucional
+(para municipios con &lt;100000 menores de 15 años SIN casos de PFA en el " &amp;'1-General'!B3 &amp;")"</f>
+        <v>Búsqueda activa institucional
+(para municipios con &lt;100000 menores de 15 años SIN casos de PFA en el )</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="30" t="str">
+        <f>"% de unidades notificadoras que enviaron información en todas las semanas durante el periodo evaluado (" &amp;'1-General'!B3 &amp;")"</f>
+        <v>% de unidades notificadoras que enviaron información en todas las semanas durante el periodo evaluado ()</v>
+      </c>
+      <c r="J2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
+      <c r="O2" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="6"/>
@@ -1912,9 +1926,9 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
@@ -1929,9 +1943,9 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="6"/>
@@ -1946,9 +1960,9 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="6"/>
@@ -1963,9 +1977,9 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="6"/>
@@ -1980,9 +1994,9 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="8"/>
@@ -2026,67 +2040,68 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="10" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="55" t="str">
+        <f>"Si la población &lt;15 años de edad es &lt;100000, ¿se presentaron casos de PFA en el " &amp;'1-General'!B3 &amp;"?"</f>
+        <v>Si la población &lt;15 años de edad es &lt;100000, ¿se presentaron casos de PFA en el ?</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="48" t="s">
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="6"/>
@@ -2096,9 +2111,9 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="6"/>
@@ -2108,9 +2123,9 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="6"/>
@@ -2120,9 +2135,9 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="6"/>
@@ -2132,9 +2147,9 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="6"/>
@@ -2144,9 +2159,9 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="8"/>
@@ -2184,10 +2199,10 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="7" width="13.83203125" customWidth="1"/>
@@ -2195,71 +2210,72 @@
     <col min="9" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="60" t="s">
+      <c r="H1" s="55" t="str">
+        <f>"Si la población &lt;15 años de edad es &lt;100000, ¿se presentaron casos de PFA en el " &amp;'1-General'!B3 &amp;"?"</f>
+        <v>Si la población &lt;15 años de edad es &lt;100000, ¿se presentaron casos de PFA en el ?</v>
+      </c>
+      <c r="I1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-    </row>
-    <row r="2" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="47" t="s">
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+    </row>
+    <row r="2" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2273,9 +2289,9 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2289,9 +2305,9 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2305,9 +2321,9 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2321,9 +2337,9 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2337,9 +2353,9 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2388,403 +2404,417 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24261340-693F-D844-8FDC-79D93DCEE3FF}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="42" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="50" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="19" style="36" customWidth="1"/>
+    <col min="5" max="5" width="50" style="36" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="39" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="73"/>
+      <c r="B3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="32" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="73"/>
+      <c r="B4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
-      <c r="B5" s="39" t="s">
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="73"/>
+      <c r="B5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="40" t="s">
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="74"/>
+      <c r="B6" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="49"/>
-    </row>
-    <row r="7" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="40" t="s">
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="74"/>
+      <c r="B7" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="49"/>
-    </row>
-    <row r="8" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="40" t="s">
+      <c r="E7" s="45"/>
+    </row>
+    <row r="8" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="75"/>
+      <c r="B8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" s="74" t="s">
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="77"/>
+      <c r="B10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="77"/>
+      <c r="B11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="78"/>
+      <c r="B12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A14" s="64"/>
+      <c r="B14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="28" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A15" s="64"/>
+      <c r="B15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A16" s="64"/>
+      <c r="B16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A17" s="64"/>
+      <c r="B17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A18" s="64"/>
+      <c r="B18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="65"/>
+      <c r="B19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="75"/>
-      <c r="B10" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="E19" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+      <c r="A20" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="75"/>
-      <c r="B11" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="E20" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="67"/>
+      <c r="B21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="97" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="E21" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="33" t="s">
+      <c r="D22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="160" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="113" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="35" t="s">
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="69"/>
+      <c r="B23" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="68"/>
-      <c r="B23" s="36" t="s">
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="70"/>
+      <c r="B24" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C24" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D24" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="68"/>
-      <c r="B24" s="36" t="s">
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="70"/>
+      <c r="B25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C25" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="68"/>
-      <c r="B25" s="36" t="s">
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="70"/>
+      <c r="B26" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D26" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="30" t="s">
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="71"/>
+      <c r="B27" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C27" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D27" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A22:A27"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A12"/>
   </mergeCells>
@@ -2800,9 +2830,9 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -2813,7 +2843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -2824,7 +2854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -2835,22 +2865,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>63</v>
       </c>
